--- a/SecurityCompliance/media/InfoBarriers-PowerShellGenerator.xlsx
+++ b/SecurityCompliance/media/InfoBarriers-PowerShellGenerator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21818"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24774D-526E-4572-8E20-A2AAC532B620}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E551F7-D3AB-4750-ACA2-A1A966F9D261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DB72A67B-08E2-4272-83B0-820083636442}"/>
+    <workbookView xWindow="846" yWindow="-96" windowWidth="22290" windowHeight="13152" xr2:uid="{DB72A67B-08E2-4272-83B0-820083636442}"/>
   </bookViews>
   <sheets>
     <sheet name="Information Barriers" sheetId="10" r:id="rId1"/>
@@ -632,26 +632,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="109.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.26171875" customWidth="1"/>
+    <col min="2" max="2" width="19.68359375" customWidth="1"/>
+    <col min="3" max="3" width="19.41796875" customWidth="1"/>
+    <col min="4" max="4" width="20.41796875" customWidth="1"/>
+    <col min="6" max="6" width="109.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="23.1" x14ac:dyDescent="0.85">
       <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -659,22 +659,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="23.1" x14ac:dyDescent="0.85">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
@@ -707,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -715,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
@@ -723,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
@@ -731,7 +731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
@@ -739,22 +739,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="AJ17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="AJ18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="AJ19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" ht="23.1" x14ac:dyDescent="0.85">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -762,7 +762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -770,12 +770,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="AJ22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -787,7 +787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
@@ -805,7 +805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11" t="s">
@@ -820,7 +820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11" t="s">
@@ -832,7 +832,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11" t="s">
@@ -844,7 +844,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11" t="s">
@@ -856,7 +856,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11" t="s">
@@ -868,7 +868,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11" t="s">
@@ -880,7 +880,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11" t="s">
@@ -892,7 +892,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11" t="s">
@@ -904,7 +904,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -912,13 +912,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9" t="s">
         <v>41</v>
       </c>
@@ -935,7 +935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -949,13 +949,13 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="7" t="str">
         <f>IF(OR(A38="",B38=""),"",IF(C38="Two-way",CONCATENATE("New-InformationBarrierPolicy -Name ",CHAR(34),B38,"-to-",A38,CHAR(34)," -AssignedSegment ",CHAR(34),B38,CHAR(34)," -SegmentsBlocked ",CHAR(34),A38,CHAR(34)," -State ",D38),""))</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
@@ -969,13 +969,13 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="7" t="str">
         <f>IF(OR(A40="",B40=""),"",IF(C40="Two-way",CONCATENATE("New-InformationBarrierPolicy -Name ",CHAR(34),B40,"-to-",A40,CHAR(34)," -AssignedSegment ",CHAR(34),B40,CHAR(34)," -SegmentsBlocked ",CHAR(34),A40,CHAR(34)," -State ",D40),""))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -989,13 +989,13 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="7" t="str">
         <f>IF(OR(A42="",B42=""),"",IF(C42="Two-way",CONCATENATE("New-InformationBarrierPolicy -Name ",CHAR(34),B42,"-to-",A42,CHAR(34)," -AssignedSegment ",CHAR(34),B42,CHAR(34)," -SegmentsBlocked ",CHAR(34),A42,CHAR(34)," -State ",D42),""))</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
@@ -1009,13 +1009,13 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" s="7" t="str">
         <f>IF(OR(A44="",B44=""),"",IF(C44="Two-way",CONCATENATE("New-InformationBarrierPolicy -Name ",CHAR(34),B44,"-to-",A44,CHAR(34)," -AssignedSegment ",CHAR(34),B44,CHAR(34)," -SegmentsBlocked ",CHAR(34),A44,CHAR(34)," -State ",D44),""))</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
@@ -1029,13 +1029,13 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F47" s="7" t="str">
         <f>IF(OR(A46="",B46=""),"",IF(C46="Two-way",CONCATENATE("New-InformationBarrierPolicy -Name ",CHAR(34),B46,"-to-",A46,CHAR(34)," -AssignedSegment ",CHAR(34),B46,CHAR(34)," -SegmentsBlocked ",CHAR(34),A46,CHAR(34)," -State ",D46),""))</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
@@ -1049,21 +1049,21 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F49" s="7" t="str">
         <f>IF(OR(A48="",B48=""),"",IF(C48="Two-way",CONCATENATE("New-InformationBarrierPolicy -Name ",CHAR(34),B48,"-to-",A48,CHAR(34)," -AssignedSegment ",CHAR(34),B48,CHAR(34)," -SegmentsBlocked ",CHAR(34),A48,CHAR(34)," -State ",D48),""))</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="9" t="s">
         <v>41</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
@@ -1090,7 +1090,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
@@ -1102,7 +1102,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
@@ -1114,7 +1114,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
@@ -1126,7 +1126,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
@@ -1138,7 +1138,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
@@ -1150,7 +1150,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
@@ -1162,7 +1162,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
@@ -1174,19 +1174,19 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F61" s="7" t="str">
         <f>IF(OR(A56="",B56=""),"",IF(C56="Two-way",CONCATENATE("New-InformationBarrierPolicy -Name ",CHAR(34),B56,"-to-",A56,CHAR(34)," -AssignedSegment ",CHAR(34),B56,CHAR(34)," -SegmentsAllowed ",CHAR(34),A56,CHAR(34)," -State Active"),""))</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="9" t="s">
         <v>46</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>10</v>
@@ -1217,7 +1217,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>10</v>
@@ -1237,43 +1237,43 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>10</v>
@@ -1304,16 +1304,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="0eddaf13-8b9c-491d-8989-96467b25f0fe" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB3688720243E4CA5A3AB4E1E5487D7" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a7e63862b3d41b2389f26a9f2c0dc08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="33027751-b62e-4e62-a476-7ad2776d8388" xmlns:ns3="0eddaf13-8b9c-491d-8989-96467b25f0fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cc73ac57a48faae2ee8776b62d90698" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1559,6 +1549,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="0eddaf13-8b9c-491d-8989-96467b25f0fe" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1569,24 +1569,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D051598-B463-4AB1-AA71-3BF6A00F46C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="33027751-b62e-4e62-a476-7ad2776d8388"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0eddaf13-8b9c-491d-8989-96467b25f0fe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C5DA2E-B93E-4E07-B2D1-8AB0F7E4B5A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1606,6 +1588,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D051598-B463-4AB1-AA71-3BF6A00F46C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="33027751-b62e-4e62-a476-7ad2776d8388"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0eddaf13-8b9c-491d-8989-96467b25f0fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE0C7-FC0A-4B41-9435-17537DF3F14A}">
   <ds:schemaRefs>
